--- a/fileUpload/report.xlsx
+++ b/fileUpload/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\flask\Flask-SQLAlchemy-Postgre-sendEmail-exportExcel-crobjob-rabbitmq-redisCache-pusher\fileUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24ACAC-34FF-43E9-9288-1F13B7493B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512051BE-5211-40C1-91E1-E61898B06012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Email: </t>
   </si>
@@ -49,10 +49,7 @@
     <t>1020211201202</t>
   </si>
   <si>
-    <t>mxcxcxc@yahoo.com</t>
-  </si>
-  <si>
-    <t>ajjkjk@yahoo.com</t>
+    <t>acacacax21@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -405,13 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -448,26 +448,17 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EB3C8E1F-2402-4181-BF37-725B82379558}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{0E57637F-5B28-4293-BD68-4B33709FE286}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fileUpload/report.xlsx
+++ b/fileUpload/report.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\flask\Flask-SQLAlchemy-Postgre-sendEmail-exportExcel-crobjob-rabbitmq-redisCache-pusher\fileUpload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512051BE-5211-40C1-91E1-E61898B06012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">No: </t>
+  </si>
   <si>
     <t xml:space="preserve">Email: </t>
   </si>
@@ -37,6 +34,9 @@
     <t xml:space="preserve">Phone Number: </t>
   </si>
   <si>
+    <t>qwwqw2qwq@yahoo.com</t>
+  </si>
+  <si>
     <t>asaas</t>
   </si>
   <si>
@@ -49,25 +49,17 @@
     <t>1020211201202</t>
   </si>
   <si>
-    <t>acacacax21@yahoo.com</t>
+    <t>qwwqw2sqwq@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,35 +82,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +137,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -190,7 +171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,10 +205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,19 +380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,37 +403,51 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EB3C8E1F-2402-4181-BF37-725B82379558}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>